--- a/data/processed/crypto_rates_2025-03-08.xlsx
+++ b/data/processed/crypto_rates_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,31 @@
         <v>86801.75</v>
       </c>
       <c r="D2" t="n">
-        <v>85955.89</v>
+        <v>86376.49000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9744734409156504</v>
+        <v>-0.4899209981365523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ETHUSDT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2141.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2184.08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.983563690698544</v>
       </c>
     </row>
   </sheetData>
